--- a/add_to_excel_test.xlsx
+++ b/add_to_excel_test.xlsx
@@ -7,7 +7,7 @@
     <sheet name="豆、魚、蛋、肉類" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="全榖雜糧類" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="蔬菜類" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="水果類 " sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="水果類" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="油脂與堅果種子類" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="其他辛香料" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="expression" priority="1" dxfId="0">
@@ -636,7 +635,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +660,75 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>蘋果</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>公克</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>番茄</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>公升</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>芭樂</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>台斤</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>玉米</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>公升</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="expression" priority="1" dxfId="0">
